--- a/WKRDB-EST2/TimeLine.xlsx
+++ b/WKRDB-EST2/TimeLine.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\storage-lk.slu.se\home$\nupr0001\My Documents\006 - ICES WGs\202109XX_WGRDB-EST\001_Presentations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ICES\ices-eg\WG_WK\WK_RDBES\WKRDB-EST2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="10770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15450" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,9 +125,6 @@
     <t>define createDBestim</t>
   </si>
   <si>
-    <t>(b) with RCG Data Quality ISSG</t>
-  </si>
-  <si>
     <t>x (a,b)</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>improve estimation and overview/report code and options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(b) fishnCo data quality </t>
   </si>
 </sst>
 </file>
@@ -226,11 +226,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12:AA18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,38 +552,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="5">
+      <c r="B2" s="7">
         <v>2021</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7">
         <v>2022</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7">
         <v>2023</v>
       </c>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -726,7 +726,7 @@
       <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
@@ -764,7 +764,7 @@
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
@@ -802,8 +802,8 @@
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
@@ -840,9 +840,9 @@
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
@@ -878,10 +878,10 @@
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="2" t="s">
         <v>12</v>
       </c>
@@ -916,13 +916,13 @@
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -948,18 +948,18 @@
       <c r="AD10" s="2"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>38</v>
+      <c r="A11" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -987,21 +987,21 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="6"/>
+      <c r="L12" s="5"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="2" t="s">
@@ -1027,21 +1027,21 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="6"/>
+      <c r="L13" s="5"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="2" t="s">
@@ -1079,7 +1079,7 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>20</v>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
